--- a/IndividualProj/data/Data.xlsx
+++ b/IndividualProj/data/Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xray/Project/R/MVEN10/IndividualProj/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E55CF09-08EA-6F47-B0F0-37E5E6CABF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1. mean GL" sheetId="1" r:id="rId1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
   <si>
     <t xml:space="preserve">Subpopulation </t>
   </si>
@@ -319,19 +325,97 @@
   </si>
   <si>
     <t>Obbard et al. 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viscount Melville Sound </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Taylor </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial-ItalicMT"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>. 2012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Regehr </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial-ItalicMT"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>. 2007</t>
+    </r>
+  </si>
+  <si>
+    <t>Western Hudson Bay</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stapleton </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial-ItalicMT"/>
+      </rPr>
+      <t xml:space="preserve">et </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>al. 2014</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -372,158 +456,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9.9499999999999993"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial-ItalicMT"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,198 +487,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -741,89 +522,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,164 +536,106 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,22 +645,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1034,62 +669,147 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1347,1648 +1067,1726 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="15.2666666666667" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.4545454545455" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.0909090909091" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.18181818181818" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.9090909090909" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="8.72727272727273" style="10"/>
+    <col min="1" max="1" width="15.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="14">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6" ht="14">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="8">
         <v>170</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="8">
         <v>11.6</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="8">
         <v>11</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="8">
         <v>12.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:6" ht="14">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>298</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>11.8</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>11.3</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>12.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:6" ht="14">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>106</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <v>11.3</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="8">
         <v>10.5</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="8">
         <v>12.3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:6" ht="14">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>243</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>10.3</v>
       </c>
-      <c r="E5" s="12">
-        <v>9.7</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E5" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F5" s="8">
         <v>10.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:6" ht="14">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>9.6</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>6.8</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="8">
         <v>12.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:6" ht="14">
+      <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>95</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>12.6</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>11.6</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="8">
         <v>13.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:6" ht="14">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="8">
         <v>230</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>13.1</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="8">
         <v>12.5</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="8">
         <v>13.7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:6" ht="14">
+      <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="8">
         <v>172</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>11.4</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="8">
         <v>10.7</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="8">
         <v>12.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:6" ht="14">
+      <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="8">
         <v>440</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <v>10.7</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="8">
         <v>10.3</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="8">
         <v>11.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:6" ht="14">
+      <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="8">
         <v>274</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>10.5</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <v>10</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:6" ht="14">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="9">
         <v>1341</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="8">
         <v>13.7</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>13.4</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="12"/>
-      <c r="C13" s="14">
+    <row r="13" spans="1:6">
+      <c r="A13" s="8"/>
+      <c r="C13" s="10">
         <f>SUM(C2:C12)</f>
         <v>3374</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="12"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="12"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="12"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="12"/>
+      <c r="A17" s="8"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="12"/>
+      <c r="A18" s="8"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="12"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="12"/>
+      <c r="A20" s="8"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="12"/>
+      <c r="A21" s="8"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="12"/>
+      <c r="A22" s="8"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="12"/>
+      <c r="A23" s="8"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="12"/>
+      <c r="A24" s="8"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="12"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="12"/>
+      <c r="A26" s="8"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="12"/>
+      <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="12"/>
+      <c r="A28" s="8"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="12"/>
+      <c r="A29" s="8"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="12"/>
+      <c r="A31" s="8"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="12"/>
+      <c r="A32" s="8"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="12"/>
+      <c r="A33" s="8"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="12"/>
+      <c r="A34" s="8"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="12"/>
+      <c r="A35" s="8"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="12"/>
+      <c r="A36" s="8"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="12"/>
+      <c r="A37" s="8"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="12"/>
+      <c r="A38" s="8"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="12"/>
+      <c r="A39" s="8"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="13"/>
+      <c r="A40" s="9"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="12"/>
+      <c r="A41" s="8"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="12"/>
+      <c r="A42" s="8"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="12"/>
+      <c r="A43" s="8"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="12"/>
+      <c r="A44" s="8"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="12"/>
+      <c r="A45" s="8"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="12"/>
+      <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="12"/>
+      <c r="A47" s="8"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="12"/>
+      <c r="A48" s="8"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="12"/>
+      <c r="A49" s="8"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="12"/>
+      <c r="A50" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I203"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C27"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.4909090909091" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
     <col min="2" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="13.1454545454545" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" hidden="1">
+      <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="28">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" hidden="1">
+      <c r="A3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="29">
         <v>1997</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="29">
         <v>2074</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="29">
         <v>1553</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="29">
         <v>2595</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:9" hidden="1">
+      <c r="A4" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="28">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="29">
         <v>2004</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="29">
         <v>2644</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="29">
         <v>1899</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="29">
         <v>3592</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:9" hidden="1">
+      <c r="A5" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="34">
         <v>1997</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="34">
         <v>2000</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:9" s="34" customFormat="1">
+      <c r="A6" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="33">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="34">
         <v>1996</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="34">
         <v>1400</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:9" s="18" customFormat="1">
+      <c r="A7" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="22">
         <f>E7/E6</f>
         <v>1.54142857142857</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="37">
         <v>2007</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="37">
         <v>2158</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="37">
         <v>1833</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="37">
         <v>2542</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:9" hidden="1">
+      <c r="A8" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="28">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="29">
         <v>1997</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="29">
         <v>2000</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="33">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="34">
         <v>1994</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="34">
         <v>2197</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="34">
         <v>1677</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="34">
         <v>2707</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:9" s="18" customFormat="1">
+      <c r="A10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="17">
         <f>E10/E9</f>
         <v>1.17432862994993</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="18">
         <v>2010</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="18">
         <v>2580</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="18">
         <v>2093</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="18">
         <v>3180</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:9" s="34" customFormat="1">
+      <c r="A11" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="33">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="34">
         <v>1986</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="34">
         <v>900</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="22">
         <f>E12/E11</f>
-        <v>1.76888888888889</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>1.7688888888888901</v>
+      </c>
+      <c r="C12" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="37">
         <v>2000</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="37">
         <v>1592</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="37">
         <v>870</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="37">
         <v>2314</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:9" hidden="1">
+      <c r="A13" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="28">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="29">
         <v>1997</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="29">
         <v>164</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="29">
         <v>94</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="29">
         <v>234</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:9" hidden="1">
+      <c r="A14" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="28">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="29">
         <v>2013</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="29">
         <v>3200</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:9" hidden="1">
+      <c r="A15" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="28">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="29">
         <v>1997</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="29">
         <v>2541</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="29">
         <v>1759</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="29">
         <v>3323</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:9" hidden="1">
+      <c r="A16" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="28">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="29">
         <v>1993</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="29">
         <v>1000</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:10" hidden="1">
+      <c r="A17" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="33">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="34">
         <v>2000</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="34">
         <v>284</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="34">
         <v>166</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="34">
         <v>402</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:10" s="34" customFormat="1">
+      <c r="A18" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="33">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="34">
         <v>1979</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="34">
         <v>876</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="34">
         <v>1</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="34">
         <v>1844</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="22">
         <f>E19/E18</f>
-        <v>1.14611872146119</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>1.1461187214611901</v>
+      </c>
+      <c r="C19" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="37">
         <v>2006</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="37">
         <v>1004</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="37">
         <v>1</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="37">
         <v>2062</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="38" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:10" hidden="1">
+      <c r="A20" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="28">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="29">
         <v>1997</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="29">
         <v>203</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="29">
         <v>115</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="29">
         <v>291</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="33">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="34">
         <v>1986</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="34">
         <v>1800</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:10" s="37" customFormat="1">
+      <c r="A22" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="22">
         <f>E22/E21</f>
-        <v>0.503888888888889</v>
-      </c>
-      <c r="C22" s="2" t="s">
+        <v>0.50388888888888905</v>
+      </c>
+      <c r="C22" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="37">
         <v>2010</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="37">
         <v>907</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="37">
         <v>548</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="37">
         <v>1270</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="37" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="17">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="18">
         <v>1986</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="20">
         <v>1000</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="18">
         <v>367</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="18">
         <v>1633</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:10" s="37" customFormat="1">
+      <c r="A24" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="22">
         <f>E24/E23</f>
-        <v>0.943</v>
-      </c>
-      <c r="C24" s="2" t="s">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="C24" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="37">
         <v>2012</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="37">
         <v>943</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="37">
         <v>658</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="37">
         <v>1350</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="5"/>
+    <row r="25" spans="1:10" hidden="1">
+      <c r="A25" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1992</v>
+      </c>
+      <c r="E25" s="16">
+        <v>161</v>
+      </c>
+      <c r="F25" s="16">
+        <v>121</v>
+      </c>
+      <c r="G25" s="16">
+        <v>201</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="34" customFormat="1">
+      <c r="A26" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="33">
+        <v>1</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="49">
+        <v>1987</v>
+      </c>
+      <c r="E26" s="49">
+        <v>1194</v>
+      </c>
+      <c r="F26" s="49">
+        <v>1020</v>
+      </c>
+      <c r="G26" s="49">
+        <v>1368</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="50"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="22">
+        <f>E27/E26</f>
+        <v>0.86264656616415414</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="21">
+        <v>2011</v>
+      </c>
+      <c r="E27" s="21">
+        <v>1030</v>
+      </c>
+      <c r="F27" s="21">
+        <v>754</v>
+      </c>
+      <c r="G27" s="21">
+        <v>1406</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="12"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="12"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="12"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="5"/>
+      <c r="A33" s="12"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="5"/>
+      <c r="A34" s="12"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="5"/>
+      <c r="A35" s="12"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="5"/>
+      <c r="A36" s="12"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="7"/>
+      <c r="A37" s="13"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="7"/>
+      <c r="A38" s="12"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="7"/>
+      <c r="A39" s="14"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="5"/>
+      <c r="A40" s="14"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="5"/>
+      <c r="A41" s="14"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="9"/>
+      <c r="A42" s="12"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="5"/>
+      <c r="A43" s="12"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="5"/>
+      <c r="A44" s="12"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="5"/>
+      <c r="A45" s="12"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="5"/>
+      <c r="A46" s="12"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="5"/>
+      <c r="A47" s="13"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="5"/>
+      <c r="A48" s="12"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="5"/>
+      <c r="A49" s="14"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="5"/>
+      <c r="A50" s="12"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="5"/>
+      <c r="A51" s="14"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="5"/>
+      <c r="A52" s="12"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="5"/>
+      <c r="A53" s="12"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="7"/>
+      <c r="A54" s="15"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="5"/>
+      <c r="A55" s="3"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="7"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="5"/>
+      <c r="A57" s="3"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="5"/>
+      <c r="A58" s="3"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="5"/>
+      <c r="A59" s="3"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="5"/>
+      <c r="A60" s="3"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="5"/>
+      <c r="A61" s="3"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="5"/>
+      <c r="A62" s="3"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="5"/>
+      <c r="A63" s="3"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="5"/>
+      <c r="A64" s="3"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="5"/>
+      <c r="A65" s="3"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="5"/>
+      <c r="A66" s="3"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="5"/>
+      <c r="A67" s="3"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="5"/>
+      <c r="A68" s="3"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="5"/>
+      <c r="A69" s="3"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="5"/>
+      <c r="A70" s="3"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="5"/>
+      <c r="A71" s="3"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="7"/>
+      <c r="A72" s="4"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="5"/>
+      <c r="A73" s="3"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="5"/>
+      <c r="A74" s="3"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="5"/>
+      <c r="A75" s="3"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="5"/>
+      <c r="A76" s="3"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="9"/>
+      <c r="A77" s="5"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="5"/>
+      <c r="A78" s="3"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="5"/>
+      <c r="A79" s="3"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="5"/>
+      <c r="A80" s="3"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="7"/>
+      <c r="A81" s="4"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="7"/>
+      <c r="A82" s="4"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="7"/>
+      <c r="A83" s="4"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="5"/>
+      <c r="A84" s="3"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="5"/>
+      <c r="A85" s="3"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="5"/>
+      <c r="A86" s="3"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="5"/>
+      <c r="A87" s="3"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="5"/>
+      <c r="A88" s="3"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="5"/>
+      <c r="A89" s="3"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="7"/>
+      <c r="A90" s="4"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="5"/>
+      <c r="A91" s="3"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="5"/>
+      <c r="A92" s="3"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="5"/>
+      <c r="A93" s="3"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="5"/>
+      <c r="A94" s="3"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="5"/>
+      <c r="A95" s="3"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="5"/>
+      <c r="A96" s="3"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="5"/>
+      <c r="A97" s="3"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="5"/>
+      <c r="A98" s="3"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="5"/>
+      <c r="A99" s="3"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="5"/>
+      <c r="A100" s="3"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="5"/>
+      <c r="A101" s="3"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="5"/>
+      <c r="A102" s="3"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="5"/>
+      <c r="A103" s="3"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="5"/>
+      <c r="A104" s="3"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="5"/>
+      <c r="A105" s="3"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="5"/>
+      <c r="A106" s="3"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="5"/>
+      <c r="A107" s="3"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="5"/>
+      <c r="A108" s="3"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="5"/>
+      <c r="A109" s="3"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="5"/>
+      <c r="A110" s="3"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="5"/>
+      <c r="A111" s="3"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="7"/>
+      <c r="A112" s="4"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="5"/>
+      <c r="A113" s="3"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="5"/>
+      <c r="A114" s="3"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="5"/>
+      <c r="A115" s="3"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="5"/>
+      <c r="A116" s="3"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="5"/>
+      <c r="A117" s="3"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="5"/>
+      <c r="A118" s="3"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="5"/>
+      <c r="A119" s="3"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="7"/>
+      <c r="A120" s="4"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="5"/>
+      <c r="A121" s="3"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="7"/>
+      <c r="A122" s="4"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="5"/>
+      <c r="A123" s="3"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="5"/>
+      <c r="A124" s="3"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="5"/>
+      <c r="A125" s="3"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="5"/>
+      <c r="A126" s="3"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="5"/>
+      <c r="A127" s="3"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="5"/>
+      <c r="A128" s="3"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="5"/>
+      <c r="A129" s="3"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="5"/>
+      <c r="A130" s="3"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="5"/>
+      <c r="A131" s="3"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="5"/>
+      <c r="A132" s="3"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="5"/>
+      <c r="A133" s="3"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="5"/>
+      <c r="A134" s="3"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="5"/>
+      <c r="A135" s="3"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="5"/>
+      <c r="A136" s="3"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="5"/>
+      <c r="A137" s="3"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="5"/>
+      <c r="A138" s="3"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="7"/>
+      <c r="A139" s="4"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="5"/>
+      <c r="A140" s="3"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="5"/>
+      <c r="A141" s="3"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="5"/>
+      <c r="A142" s="3"/>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="5"/>
+      <c r="A143" s="3"/>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="5"/>
+      <c r="A144" s="3"/>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="5"/>
+      <c r="A145" s="3"/>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="5"/>
+      <c r="A146" s="3"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="5"/>
+      <c r="A147" s="3"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="5"/>
+      <c r="A148" s="3"/>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="5"/>
+      <c r="A149" s="3"/>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="7"/>
+      <c r="A150" s="4"/>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="5"/>
+      <c r="A151" s="3"/>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="5"/>
+      <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="9"/>
+      <c r="A153" s="5"/>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="5"/>
+      <c r="A154" s="3"/>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="5"/>
+      <c r="A155" s="3"/>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="5"/>
+      <c r="A156" s="3"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="5"/>
+      <c r="A157" s="3"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="5"/>
+      <c r="A158" s="3"/>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="5"/>
+      <c r="A159" s="3"/>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="7"/>
+      <c r="A160" s="4"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="5"/>
+      <c r="A161" s="3"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="5"/>
+      <c r="A162" s="3"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="9"/>
+      <c r="A163" s="5"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="5"/>
+      <c r="A164" s="3"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="5"/>
+      <c r="A165" s="3"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="5"/>
+      <c r="A166" s="3"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="5"/>
+      <c r="A167" s="3"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="5"/>
+      <c r="A168" s="3"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="5"/>
+      <c r="A169" s="3"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="7"/>
+      <c r="A170" s="4"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="5"/>
+      <c r="A171" s="3"/>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="5"/>
+      <c r="A172" s="3"/>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="5"/>
+      <c r="A173" s="3"/>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="5"/>
+      <c r="A174" s="3"/>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="5"/>
+      <c r="A175" s="3"/>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="5"/>
+      <c r="A176" s="3"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="5"/>
+      <c r="A177" s="3"/>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="5"/>
+      <c r="A178" s="3"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="5"/>
+      <c r="A179" s="3"/>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="5"/>
+      <c r="A180" s="3"/>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="5"/>
+      <c r="A181" s="3"/>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="5"/>
+      <c r="A182" s="3"/>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="5"/>
+      <c r="A183" s="3"/>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="5"/>
+      <c r="A184" s="3"/>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="5"/>
+      <c r="A185" s="3"/>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="5"/>
+      <c r="A186" s="3"/>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="5"/>
+      <c r="A187" s="3"/>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="7"/>
+      <c r="A188" s="4"/>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="7"/>
+      <c r="A189" s="4"/>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="7"/>
+      <c r="A190" s="4"/>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="5"/>
+      <c r="A191" s="3"/>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="5"/>
+      <c r="A192" s="3"/>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="5"/>
+      <c r="A193" s="3"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="5"/>
+      <c r="A194" s="3"/>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="5"/>
+      <c r="A195" s="3"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="5"/>
+      <c r="A196" s="3"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="5"/>
+      <c r="A197" s="3"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="7"/>
+      <c r="A198" s="4"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="5"/>
+      <c r="A199" s="3"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="7"/>
+      <c r="A200" s="4"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="5"/>
+      <c r="A201" s="3"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="5"/>
+      <c r="A202" s="3"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="9"/>
+      <c r="A203" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>